--- a/output/freezer_03_shelf3/c4_exceldata.xlsx
+++ b/output/freezer_03_shelf3/c4_exceldata.xlsx
@@ -28,7 +28,7 @@
     <t>F3-S3-R1-CL1-RW1</t>
   </si>
   <si>
-    <t>SLC34</t>
+    <t>SLC52</t>
   </si>
   <si>
     <t>F3-S3-R1-CL1-RW2</t>
@@ -52,7 +52,7 @@
     <t>F3-S3-R1-CL2-RW1</t>
   </si>
   <si>
-    <t>SLC35</t>
+    <t>SLC53</t>
   </si>
   <si>
     <t>F3-S3-R1-CL2-RW2</t>
@@ -76,7 +76,7 @@
     <t>F3-S3-R1-CL3-RW1</t>
   </si>
   <si>
-    <t>SLC36</t>
+    <t>SLC54</t>
   </si>
   <si>
     <t>F3-S3-R1-CL3-RW2</t>
@@ -100,7 +100,7 @@
     <t>F3-S3-R2-CL1-RW1</t>
   </si>
   <si>
-    <t>SLC37</t>
+    <t>SLC55</t>
   </si>
   <si>
     <t>F3-S3-R2-CL1-RW2</t>
@@ -124,7 +124,7 @@
     <t>F3-S3-R2-CL2-RW1</t>
   </si>
   <si>
-    <t>SLC38</t>
+    <t>SLC56</t>
   </si>
   <si>
     <t>F3-S3-R2-CL2-RW2</t>
@@ -148,7 +148,7 @@
     <t>F3-S3-R2-CL3-RW1</t>
   </si>
   <si>
-    <t>SLC39</t>
+    <t>SLC57</t>
   </si>
   <si>
     <t>F3-S3-R2-CL3-RW2</t>
@@ -172,7 +172,7 @@
     <t>F3-S3-R3-CL1-RW1</t>
   </si>
   <si>
-    <t>SLC40</t>
+    <t>SLC58</t>
   </si>
   <si>
     <t>F3-S3-R3-CL1-RW2</t>
@@ -196,7 +196,7 @@
     <t>F3-S3-R3-CL2-RW1</t>
   </si>
   <si>
-    <t>SLC41</t>
+    <t>SLC59</t>
   </si>
   <si>
     <t>F3-S3-R3-CL2-RW2</t>
@@ -220,7 +220,7 @@
     <t>F3-S3-R3-CL3-RW1</t>
   </si>
   <si>
-    <t>SLC42</t>
+    <t>SLC60</t>
   </si>
   <si>
     <t>F3-S3-R3-CL3-RW2</t>
